--- a/framework/inputs/templates/execution_report_template.xlsx
+++ b/framework/inputs/templates/execution_report_template.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sisuadigital-my.sharepoint.com/personal/vicente_diaz_sisuadigital_com/Documents/Github/uipath_frameworks/standalone_framework/standalone_template_3.4/framework/inputs/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\UiPath\doi_soat_vietqr\framework\inputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC10483D71DD50205ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A6E79BE-71D9-4F59-9563-A2E668F46FC0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,27 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>item_id</t>
   </si>
   <si>
-    <t>outcome_state_1</t>
-  </si>
-  <si>
-    <t>outcome_state_2</t>
-  </si>
-  <si>
     <t>processing_date</t>
-  </si>
-  <si>
-    <t>observation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -95,32 +85,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -148,86 +122,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -511,8 +405,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -521,40 +415,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="D1:Z1048576">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",D1)))</formula>
+  <autoFilter ref="A1:B1"/>
+  <conditionalFormatting sqref="C1:W1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="PENDING">
+      <formula>NOT(ISERROR(SEARCH("PENDING",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",D1)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="PENDING">
-      <formula>NOT(ISERROR(SEARCH("PENDING",D1)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
